--- a/hydrofacies/confinement_from_hf.xlsx
+++ b/hydrofacies/confinement_from_hf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="138">
   <si>
     <t>secteur</t>
   </si>
@@ -418,22 +418,16 @@
     <t>02340008</t>
   </si>
   <si>
-    <t>Captive, Semi-captive</t>
-  </si>
-  <si>
-    <t>Libre, Semi-captive</t>
+    <t>Captive</t>
+  </si>
+  <si>
+    <t>Semi-captive</t>
   </si>
   <si>
     <t>Libre</t>
   </si>
   <si>
-    <t>Semi-captive</t>
-  </si>
-  <si>
-    <t>Captive, Libre, Semi-captive</t>
-  </si>
-  <si>
-    <t>Indéterminé</t>
+    <t>['Indéterminé']</t>
   </si>
 </sst>
 </file>
@@ -922,7 +916,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -933,7 +927,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -944,7 +938,7 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -955,7 +949,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -966,7 +960,7 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1010,7 +1004,7 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1032,7 +1026,7 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1054,7 +1048,7 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1131,7 +1125,7 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1142,7 +1136,7 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1153,7 +1147,7 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1164,7 +1158,7 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1186,7 +1180,7 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1208,7 +1202,7 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1219,7 +1213,7 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1241,7 +1235,7 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1263,7 +1257,7 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1274,7 +1268,7 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1296,7 +1290,7 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1329,7 +1323,7 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1351,7 +1345,7 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1362,7 +1356,7 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1373,7 +1367,7 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1439,7 +1433,7 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1461,7 +1455,7 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1483,7 +1477,7 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1571,7 +1565,7 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1582,7 +1576,7 @@
         <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1593,7 +1587,7 @@
         <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1604,7 +1598,7 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1626,7 +1620,7 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1637,7 +1631,7 @@
         <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1648,7 +1642,7 @@
         <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1659,7 +1653,7 @@
         <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1670,7 +1664,7 @@
         <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1681,7 +1675,7 @@
         <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1692,7 +1686,7 @@
         <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1703,7 +1697,7 @@
         <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1714,7 +1708,7 @@
         <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1747,7 +1741,7 @@
         <v>102</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1769,7 +1763,7 @@
         <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1780,7 +1774,7 @@
         <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1813,7 +1807,7 @@
         <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1824,7 +1818,7 @@
         <v>109</v>
       </c>
       <c r="C96" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1846,7 +1840,7 @@
         <v>111</v>
       </c>
       <c r="C98" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1857,7 +1851,7 @@
         <v>112</v>
       </c>
       <c r="C99" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1868,7 +1862,7 @@
         <v>113</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1879,7 +1873,7 @@
         <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1890,7 +1884,7 @@
         <v>115</v>
       </c>
       <c r="C102" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1901,7 +1895,7 @@
         <v>116</v>
       </c>
       <c r="C103" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1912,7 +1906,7 @@
         <v>117</v>
       </c>
       <c r="C104" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1923,7 +1917,7 @@
         <v>118</v>
       </c>
       <c r="C105" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1934,7 +1928,7 @@
         <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1945,7 +1939,7 @@
         <v>120</v>
       </c>
       <c r="C107" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1967,7 +1961,7 @@
         <v>122</v>
       </c>
       <c r="C109" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1978,7 +1972,7 @@
         <v>123</v>
       </c>
       <c r="C110" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1989,7 +1983,7 @@
         <v>124</v>
       </c>
       <c r="C111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2000,7 +1994,7 @@
         <v>125</v>
       </c>
       <c r="C112" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2044,7 +2038,7 @@
         <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2055,7 +2049,7 @@
         <v>130</v>
       </c>
       <c r="C117" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2066,7 +2060,7 @@
         <v>131</v>
       </c>
       <c r="C118" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:3">
